--- a/A1_Experiment_Sheet.xlsx
+++ b/A1_Experiment_Sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Feature Representation</t>
   </si>
@@ -67,10 +67,13 @@
     <t>DecisionTreeClassifier</t>
   </si>
   <si>
+    <t>criterion=gini</t>
+  </si>
+  <si>
     <t>SVMClassifier</t>
   </si>
   <si>
-    <t/>
+    <t>C=1.0</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -155,11 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -167,15 +173,21 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -486,14 +498,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="27.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -509,214 +521,246 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>0.4653</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>0.4865</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>0.4653</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>0.4675</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>0.4653</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>0.4865</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>0.4653</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>0.4675</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>0.6</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>0.6034</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>0.6</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>0.5967</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>0.598</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>0.5954</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>0.598</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>0.5925</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="E6" s="5">
+        <v>0.5485</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.5568</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.5485</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.5494</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="E7" s="5">
+        <v>0.5446</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.5499</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.5446</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.5445</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="E8" s="5">
+        <v>0.6376</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.6522</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.6376</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.6058</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="5">
+        <v>0.6653</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.6707</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.6653</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.6588</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A1_Experiment_Sheet.xlsx
+++ b/A1_Experiment_Sheet.xlsx
@@ -83,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -158,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -175,17 +181,20 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -503,9 +512,9 @@
     <col min="3" max="3" style="8" width="14.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="10" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="27.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -638,7 +647,7 @@
         <v>0.5925</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -664,7 +673,7 @@
         <v>0.5494</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -690,7 +699,7 @@
         <v>0.5445</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -716,7 +725,7 @@
         <v>0.6058</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>

--- a/A1_Experiment_Sheet.xlsx
+++ b/A1_Experiment_Sheet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,6 +811,3534 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 4, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.57%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>63.34%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>63.57%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>62.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 5}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.20%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>60.94%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>60.20%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>60.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 8, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.37%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>63.10%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>62.37%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>61.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 2}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58.99%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>60.27%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>58.99%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>58.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CV=11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.40%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>63.05%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>61.40%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>61.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 2}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CV=13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.16%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>62.82%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>61.16%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>60.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CV=15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.23%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>62.13%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>61.23%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>60.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CV=17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.18%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>63.19%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>62.18%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>61.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 4, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CV=19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.57%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>65.90%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>64.57%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>64.34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CV=21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.95%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>65.40%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>62.95%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>62.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CV=23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>62.79%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>65.42%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>62.79%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>62.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CV=25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.85%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>66.39%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>62.85%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>62.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 15}</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CV=27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.61%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>63.40%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>61.61%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>60.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 2}</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CV=29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.26%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>66.19%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>63.26%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>62.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 15}</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.98%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>63.54%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>62.98%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>62.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.18%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>63.28%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>62.18%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>61.70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>63.16%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>63.16%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>63.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 15}</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>62.58%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>63.81%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>62.58%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>62.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 2}</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CV=11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62.57%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>64.93%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>62.57%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>62.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CV=13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.15%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>65.01%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>64.15%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>63.99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 2}</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CV=15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>63.40%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>66.01%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>63.40%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>63.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 4, 'min_samples_split': 15}</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CV=17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>61.20%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>62.63%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>61.20%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>61.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 15}</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CV=19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>61.64%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>63.83%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>61.64%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>61.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 15}</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CV=21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>62.96%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>64.91%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>62.96%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>62.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CV=23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>61.97%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>64.96%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>61.97%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>62.03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 2}</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CV=25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60.86%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>62.30%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>60.86%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>60.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 15}</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CV=27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>61.64%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>63.35%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>61.64%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>61.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CV=29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>62.91%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>64.51%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>62.91%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>62.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 23, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>63.58%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>63.82%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>63.58%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>62.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 23, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>64.27%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>62.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 25, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>63.57%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>63.49%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>63.57%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>62.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 25, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>62.98%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>63.09%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>62.98%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>61.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 27, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CV=11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.57%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>65.32%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>64.57%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>63.34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 31, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CV=13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.77%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>65.98%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>64.77%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>63.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 27, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CV=15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.39%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>64.88%</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>64.39%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>63.17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 33, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CV=17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.36%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>67.37%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>66.36%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>64.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 27, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CV=19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>64.55%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>64.93%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>64.55%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>63.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 31, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CV=21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.13%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>66.20%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>65.13%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>63.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 31, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CV=23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.17%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>66.53%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>65.17%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>63.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 29, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CV=25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>64.42%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>66.07%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>64.42%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>63.21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 29, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CV=27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>64.20%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>65.45%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>64.20%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>62.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 27, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CV=29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>63.98%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>64.80%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>63.98%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>62.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 45, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>64.37%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>64.91%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>64.37%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>63.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 49, 'weights': 'distance'}</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.35%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>65.84%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>65.35%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>64.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 27, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>65.54%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>65.73%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>65.54%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>65.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 39, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>65.35%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>66.25%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>65.35%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>64.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 45, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CV=11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.76%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>66.52%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>65.76%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>65.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 49, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CV=13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>66.35%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>66.83%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>66.35%</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>65.76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CV=15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.38%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>66.33%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>65.38%</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>64.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CV=17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>66.36%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>66.78%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>66.36%</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>65.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CV=19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.39%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>65.85%</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>65.39%</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>64.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CV=21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>66.32%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>67.46%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>66.32%</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>65.49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CV=23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>66.14%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>66.84%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>66.14%</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>65.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 47, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CV=25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>65.81%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>67.61%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>65.81%</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>65.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 45, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CV=27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>65.59%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>67.25%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>65.59%</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>64.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 49, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CV=29</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>65.28%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>66.30%</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>65.28%</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>64.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>63.77%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>63.67%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>63.77%</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>63.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>64.36%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>64.61%</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>64.36%</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>63.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>64.43%</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>63.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>65.75%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>66.56%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>65.75%</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>65.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CV=11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>63.99%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>65.04%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>63.99%</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>63.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CV=13</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>65.36%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>66.28%</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>65.36%</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>64.87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CV=15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>65.19%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>66.29%</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>65.19%</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>64.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CV=17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>66.77%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>68.69%</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>66.77%</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>65.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CV=19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>66.34%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>67.84%</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>66.34%</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>65.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CV=21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>66.53%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>68.71%</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>66.53%</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>65.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CV=23</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>66.56%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>68.71%</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>66.56%</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>65.70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CV=25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>66.63%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>68.43%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>66.63%</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>65.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CV=27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>65.40%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>67.44%</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>65.40%</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>64.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CV=29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>66.81%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>67.84%</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>66.81%</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>65.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>66.54%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>67.39%</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>66.54%</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>66.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>67.13%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>68.20%</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>67.13%</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>67.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>{'C': 0.1, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>68.12%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>69.15%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>68.12%</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>68.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>{'C': 10, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>68.52%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>69.58%</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>68.52%</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>68.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CV=11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>68.34%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>69.94%</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>68.34%</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>68.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CV=13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>69.73%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>69.73%</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>69.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CV=15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>68.76%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>70.20%</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>68.76%</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>68.70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CV=17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>69.34%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>70.44%</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>69.34%</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>69.34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CV=19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>67.96%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>69.25%</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>67.96%</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>68.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>{'C': 10, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CV=21</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>68.49%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>70.20%</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>68.49%</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>68.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>{'C': 0.1, 'degree': 3, 'gamma': 'auto', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CV=23</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>68.74%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>70.29%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>68.74%</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>68.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>{'C': 10, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CV=25</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>69.20%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>71.13%</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>69.20%</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>69.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CV=27</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>69.15%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>70.95%</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>69.15%</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>69.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>{'C': 0.1, 'degree': 3, 'gamma': 'auto', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CV=29</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>69.63%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>71.06%</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>69.63%</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>69.39%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/A1_Experiment_Sheet.xlsx
+++ b/A1_Experiment_Sheet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,27 +493,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CV=5</t>
+          <t>CV=3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.53%</t>
+          <t>51.09%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>48.65%</t>
+          <t>52.95%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>46.53%</t>
+          <t>51.09%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>46.75%</t>
+          <t>51.40%</t>
         </is>
       </c>
     </row>
@@ -525,12 +525,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KNNClassifier</t>
+          <t>DummyClassifier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
+          <t>{'constant': None, 'random_state': 42, 'strategy': 'uniform'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -540,22 +540,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>46.53%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>60.34%</t>
+          <t>48.65%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>46.53%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>59.67%</t>
+          <t>46.75%</t>
         </is>
       </c>
     </row>
@@ -567,37 +567,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DecisionTreeClassifier</t>
+          <t>DummyClassifier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'monotonic_cst': None, 'random_state': 42, 'splitter': 'best'}</t>
+          <t>{'constant': None, 'random_state': 42, 'strategy': 'uniform'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CV=5</t>
+          <t>CV=7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54.85%</t>
+          <t>48.31%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>55.68%</t>
+          <t>50.12%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>54.85%</t>
+          <t>48.31%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>54.94%</t>
+          <t>48.73%</t>
         </is>
       </c>
     </row>
@@ -609,86 +609,86 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SVMClassifier</t>
+          <t>DummyClassifier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'C': 1.0, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 'scale', 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 42, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+          <t>{'constant': None, 'random_state': 42, 'strategy': 'uniform'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CV=5</t>
+          <t>CV=9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>63.76%</t>
+          <t>51.07%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>65.22%</t>
+          <t>53.53%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>63.76%</t>
+          <t>51.07%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>60.58%</t>
+          <t>51.52%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>Freq</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DummyClassifier</t>
+          <t>KNNClassifier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'constant': None, 'random_state': 42, 'strategy': 'uniform'}</t>
+          <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CV=5</t>
+          <t>CV=3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46.53%</t>
+          <t>58.42%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>48.65%</t>
+          <t>58.14%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>46.53%</t>
+          <t>58.42%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>46.75%</t>
+          <t>57.81%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>Freq</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -708,106 +708,106 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>59.80%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>59.54%</t>
+          <t>60.34%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>59.80%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>59.25%</t>
+          <t>59.67%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>Freq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DecisionTreeClassifier</t>
+          <t>KNNClassifier</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'monotonic_cst': None, 'random_state': 42, 'splitter': 'best'}</t>
+          <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CV=5</t>
+          <t>CV=7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>54.46%</t>
+          <t>59.42%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>54.99%</t>
+          <t>59.42%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>54.46%</t>
+          <t>59.42%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>54.45%</t>
+          <t>59.17%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>Freq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SVMClassifier</t>
+          <t>KNNClassifier</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'C': 1.0, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 'scale', 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 42, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+          <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CV=5</t>
+          <t>CV=9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>66.53%</t>
+          <t>58.63%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>67.07%</t>
+          <t>59.24%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>66.53%</t>
+          <t>58.63%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>65.88%</t>
+          <t>58.46%</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 4, 'min_samples_split': 20}</t>
+          <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'monotonic_cst': None, 'random_state': 42, 'splitter': 'best'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -834,22 +834,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>63.57%</t>
+          <t>58.42%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>63.34%</t>
+          <t>59.56%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>63.57%</t>
+          <t>58.42%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>62.95%</t>
+          <t>58.29%</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 5}</t>
+          <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'monotonic_cst': None, 'random_state': 42, 'splitter': 'best'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -876,22 +876,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>60.20%</t>
+          <t>54.85%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60.94%</t>
+          <t>55.68%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>60.20%</t>
+          <t>54.85%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>60.16%</t>
+          <t>54.94%</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 8, 'min_samples_split': 20}</t>
+          <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'monotonic_cst': None, 'random_state': 42, 'splitter': 'best'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -918,22 +918,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>62.37%</t>
+          <t>56.24%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>63.10%</t>
+          <t>57.53%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>62.37%</t>
+          <t>56.24%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>61.71%</t>
+          <t>56.31%</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 2}</t>
+          <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'monotonic_cst': None, 'random_state': 42, 'splitter': 'best'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -960,39 +960,39 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>58.99%</t>
+          <t>53.86%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>60.27%</t>
+          <t>54.94%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>58.99%</t>
+          <t>53.86%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>58.42%</t>
+          <t>53.77%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>Freq</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DecisionTreeClassifier</t>
+          <t>SVMClassifier</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 15}</t>
+          <t>{'C': 1.0, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 'scale', 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 42, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1002,39 +1002,39 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>62.98%</t>
+          <t>63.57%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>63.54%</t>
+          <t>64.57%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>62.98%</t>
+          <t>63.57%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>62.67%</t>
+          <t>60.41%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>Freq</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DecisionTreeClassifier</t>
+          <t>SVMClassifier</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 20}</t>
+          <t>{'C': 1.0, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 'scale', 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 42, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1044,39 +1044,39 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>62.18%</t>
+          <t>63.76%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>63.28%</t>
+          <t>65.22%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>62.18%</t>
+          <t>63.76%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>61.70%</t>
+          <t>60.58%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>Freq</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DecisionTreeClassifier</t>
+          <t>SVMClassifier</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'criterion': 'entropy', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20}</t>
+          <t>{'C': 1.0, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 'scale', 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 42, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1086,39 +1086,39 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>63.17%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>64.16%</t>
+          <t>64.55%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>63.17%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>63.18%</t>
+          <t>59.82%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Norm</t>
+          <t>Freq</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DecisionTreeClassifier</t>
+          <t>SVMClassifier</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'criterion': 'gini', 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 15}</t>
+          <t>{'C': 1.0, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 'scale', 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 42, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1128,39 +1128,39 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>62.58%</t>
+          <t>63.38%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>63.81%</t>
+          <t>65.24%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>62.58%</t>
+          <t>63.38%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>62.40%</t>
+          <t>60.48%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KNNClassifier</t>
+          <t>DummyClassifier</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 23, 'weights': 'uniform'}</t>
+          <t>{'constant': None, 'random_state': 42, 'strategy': 'uniform'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1170,39 +1170,39 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>51.09%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>63.82%</t>
+          <t>52.95%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>51.09%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>62.15%</t>
+          <t>51.40%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KNNClassifier</t>
+          <t>DummyClassifier</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 23, 'weights': 'uniform'}</t>
+          <t>{'constant': None, 'random_state': 42, 'strategy': 'uniform'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1212,39 +1212,39 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>64.16%</t>
+          <t>46.53%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>64.27%</t>
+          <t>48.65%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>64.16%</t>
+          <t>46.53%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>62.92%</t>
+          <t>46.75%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KNNClassifier</t>
+          <t>DummyClassifier</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 25, 'weights': 'uniform'}</t>
+          <t>{'constant': None, 'random_state': 42, 'strategy': 'uniform'}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1254,39 +1254,39 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>63.57%</t>
+          <t>48.31%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>63.49%</t>
+          <t>50.12%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>63.57%</t>
+          <t>48.31%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>62.42%</t>
+          <t>48.73%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KNNClassifier</t>
+          <t>DummyClassifier</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 25, 'weights': 'uniform'}</t>
+          <t>{'constant': None, 'random_state': 42, 'strategy': 'uniform'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1296,29 +1296,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>62.98%</t>
+          <t>51.07%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>63.09%</t>
+          <t>53.53%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>62.98%</t>
+          <t>51.07%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>61.47%</t>
+          <t>51.52%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 45, 'weights': 'uniform'}</t>
+          <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1338,29 +1338,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>64.37%</t>
+          <t>57.83%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>64.91%</t>
+          <t>57.54%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>64.37%</t>
+          <t>57.83%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>63.62%</t>
+          <t>57.35%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 49, 'weights': 'distance'}</t>
+          <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1380,29 +1380,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>65.35%</t>
+          <t>59.80%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>65.84%</t>
+          <t>59.54%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>65.35%</t>
+          <t>59.80%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>64.51%</t>
+          <t>59.25%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 27, 'weights': 'uniform'}</t>
+          <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1422,29 +1422,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>65.54%</t>
+          <t>60.41%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>65.73%</t>
+          <t>60.50%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>65.54%</t>
+          <t>60.41%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>65.05%</t>
+          <t>59.89%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'metric': 'euclidean', 'n_neighbors': 39, 'weights': 'uniform'}</t>
+          <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1464,39 +1464,39 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>65.35%</t>
+          <t>61.59%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>66.25%</t>
+          <t>61.47%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>65.35%</t>
+          <t>61.59%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>64.85%</t>
+          <t>60.93%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SVMClassifier</t>
+          <t>DecisionTreeClassifier</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+          <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'monotonic_cst': None, 'random_state': 42, 'splitter': 'best'}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1506,39 +1506,39 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>63.77%</t>
+          <t>57.04%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>63.67%</t>
+          <t>58.28%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>63.77%</t>
+          <t>57.04%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>63.46%</t>
+          <t>57.03%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SVMClassifier</t>
+          <t>DecisionTreeClassifier</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+          <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'monotonic_cst': None, 'random_state': 42, 'splitter': 'best'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1548,39 +1548,39 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>64.36%</t>
+          <t>54.46%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>64.61%</t>
+          <t>54.99%</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>64.36%</t>
+          <t>54.46%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>63.71%</t>
+          <t>54.45%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SVMClassifier</t>
+          <t>DecisionTreeClassifier</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+          <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'monotonic_cst': None, 'random_state': 42, 'splitter': 'best'}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1590,39 +1590,39 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>64.16%</t>
+          <t>56.04%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>64.43%</t>
+          <t>56.35%</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>64.16%</t>
+          <t>56.04%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>63.38%</t>
+          <t>56.07%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>Norm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SVMClassifier</t>
+          <t>DecisionTreeClassifier</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+          <t>{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'monotonic_cst': None, 'random_state': 42, 'splitter': 'best'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1632,22 +1632,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>65.75%</t>
+          <t>57.43%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>66.56%</t>
+          <t>58.65%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>65.75%</t>
+          <t>57.43%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>65.19%</t>
+          <t>57.24%</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'poly'}</t>
+          <t>{'C': 1.0, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 'scale', 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 42, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1674,22 +1674,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>66.54%</t>
+          <t>62.98%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>67.39%</t>
+          <t>63.70%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>66.54%</t>
+          <t>62.98%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>66.50%</t>
+          <t>62.07%</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{'C': 1, 'degree': 4, 'gamma': 'scale', 'kernel': 'poly'}</t>
+          <t>{'C': 1.0, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 'scale', 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 42, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1716,22 +1716,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>67.13%</t>
+          <t>66.53%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>68.20%</t>
+          <t>67.07%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>67.13%</t>
+          <t>66.53%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>67.14%</t>
+          <t>65.88%</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
+          <t>{'C': 1.0, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 'scale', 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 42, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1758,22 +1758,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>68.12%</t>
+          <t>64.76%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>69.15%</t>
+          <t>65.31%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>68.12%</t>
+          <t>64.76%</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>68.23%</t>
+          <t>64.23%</t>
         </is>
       </c>
     </row>
@@ -1790,30 +1790,1038 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>{'C': 1.0, 'break_ties': False, 'cache_size': 200, 'class_weight': None, 'coef0': 0.0, 'decision_function_shape': 'ovr', 'degree': 3, 'gamma': 'scale', 'kernel': 'rbf', 'max_iter': -1, 'probability': False, 'random_state': 42, 'shrinking': True, 'tol': 0.001, 'verbose': False}</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.15%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>65.99%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>65.15%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>64.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 4, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.57%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>63.34%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>63.57%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>62.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 5}</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60.20%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>60.94%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>60.20%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>60.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 10, 'min_samples_leaf': 8, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>62.37%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>63.10%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>62.37%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>61.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 2}</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>58.99%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>60.27%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>58.99%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>58.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 15}</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.98%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>63.54%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>62.98%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>62.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>62.18%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>63.28%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>62.18%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>61.70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>{'criterion': 'entropy', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20}</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>63.16%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>63.16%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>63.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>{'criterion': 'gini', 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 15}</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>62.58%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>63.81%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>62.58%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>62.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 23, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>63.58%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>63.82%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>63.58%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>62.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 23, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>64.27%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>62.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 25, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>63.57%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>63.49%</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>63.57%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>62.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 25, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>62.98%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>63.09%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>62.98%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>61.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 45, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>64.37%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>64.91%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>64.37%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>63.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 49, 'weights': 'distance'}</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.35%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>65.84%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>65.35%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>64.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 27, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.54%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>65.73%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>65.54%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>65.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>KNNClassifier</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>{'metric': 'euclidean', 'n_neighbors': 39, 'weights': 'uniform'}</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>65.35%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>66.25%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>65.35%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>64.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>63.77%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>63.67%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>63.77%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>63.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>64.36%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>64.61%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>64.36%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>63.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>64.43%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>63.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CV=9</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.75%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>66.56%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>65.75%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>65.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'degree': 2, 'gamma': 'auto', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CV=3</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>66.54%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>67.39%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>66.54%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>66.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CV=5</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>67.13%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>68.20%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>67.13%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>67.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>{'C': 0.1, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CV=7</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>68.12%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>69.15%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>68.12%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>68.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SVMClassifier</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>{'C': 10, 'degree': 3, 'gamma': 'scale', 'kernel': 'poly'}</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>CV=9</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>68.52%</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>69.58%</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>68.52%</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>68.54%</t>
         </is>
